--- a/current_files/data/Yurt_ici_27.donem.xlsx
+++ b/current_files/data/Yurt_ici_27.donem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efegulkan/R_files/kamu_secimler/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efegulkan/R_files/employment_election/current_files/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B2A56-AEB6-A240-9045-866C6A397D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE07B083-3C0F-0D4C-9DCF-F88D64B3035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
   <si>
     <t>İl Adı</t>
   </si>
@@ -562,6 +562,249 @@
   </si>
   <si>
     <t>Plaka</t>
+  </si>
+  <si>
+    <t>Adana</t>
+  </si>
+  <si>
+    <t>Adıyaman</t>
+  </si>
+  <si>
+    <t>Afyonkarahisar</t>
+  </si>
+  <si>
+    <t>Ağrı</t>
+  </si>
+  <si>
+    <t>Aksaray</t>
+  </si>
+  <si>
+    <t>Amasya</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>Ardahan</t>
+  </si>
+  <si>
+    <t>Artvin</t>
+  </si>
+  <si>
+    <t>Aydın</t>
+  </si>
+  <si>
+    <t>Balıkesir</t>
+  </si>
+  <si>
+    <t>Bartın</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Bayburt</t>
+  </si>
+  <si>
+    <t>Bilecik</t>
+  </si>
+  <si>
+    <t>Bingöl</t>
+  </si>
+  <si>
+    <t>Bitlis</t>
+  </si>
+  <si>
+    <t>Bolu</t>
+  </si>
+  <si>
+    <t>Burdur</t>
+  </si>
+  <si>
+    <t>Bursa</t>
+  </si>
+  <si>
+    <t>Çanakkale</t>
+  </si>
+  <si>
+    <t>Çankırı</t>
+  </si>
+  <si>
+    <t>Çorum</t>
+  </si>
+  <si>
+    <t>Denizli</t>
+  </si>
+  <si>
+    <t>Diyarbakır</t>
+  </si>
+  <si>
+    <t>Düzce</t>
+  </si>
+  <si>
+    <t>Edirne</t>
+  </si>
+  <si>
+    <t>Elazığ</t>
+  </si>
+  <si>
+    <t>Erzincan</t>
+  </si>
+  <si>
+    <t>Erzurum</t>
+  </si>
+  <si>
+    <t>Eskişehir</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Giresun</t>
+  </si>
+  <si>
+    <t>Gümüşhane</t>
+  </si>
+  <si>
+    <t>Hakkari</t>
+  </si>
+  <si>
+    <t>Hatay</t>
+  </si>
+  <si>
+    <t>Iğdır</t>
+  </si>
+  <si>
+    <t>Isparta</t>
+  </si>
+  <si>
+    <t>İstanbul</t>
+  </si>
+  <si>
+    <t>İzmir</t>
+  </si>
+  <si>
+    <t>Kahramanmaraş</t>
+  </si>
+  <si>
+    <t>Karabük</t>
+  </si>
+  <si>
+    <t>Karaman</t>
+  </si>
+  <si>
+    <t>Kars</t>
+  </si>
+  <si>
+    <t>Kastamonu</t>
+  </si>
+  <si>
+    <t>Kayseri</t>
+  </si>
+  <si>
+    <t>Kırıkkale</t>
+  </si>
+  <si>
+    <t>Kırklareli</t>
+  </si>
+  <si>
+    <t>Kırşehir</t>
+  </si>
+  <si>
+    <t>Kilis</t>
+  </si>
+  <si>
+    <t>Kocaeli</t>
+  </si>
+  <si>
+    <t>Konya</t>
+  </si>
+  <si>
+    <t>Kütahya</t>
+  </si>
+  <si>
+    <t>Malatya</t>
+  </si>
+  <si>
+    <t>Manisa</t>
+  </si>
+  <si>
+    <t>Mardin</t>
+  </si>
+  <si>
+    <t>Mersin</t>
+  </si>
+  <si>
+    <t>Muğla</t>
+  </si>
+  <si>
+    <t>Muş</t>
+  </si>
+  <si>
+    <t>Nevşehir</t>
+  </si>
+  <si>
+    <t>Niğde</t>
+  </si>
+  <si>
+    <t>Ordu</t>
+  </si>
+  <si>
+    <t>Osmaniye</t>
+  </si>
+  <si>
+    <t>Rize</t>
+  </si>
+  <si>
+    <t>Sakarya</t>
+  </si>
+  <si>
+    <t>Samsun</t>
+  </si>
+  <si>
+    <t>Siirt</t>
+  </si>
+  <si>
+    <t>Sinop</t>
+  </si>
+  <si>
+    <t>Sivas</t>
+  </si>
+  <si>
+    <t>Şanlıurfa</t>
+  </si>
+  <si>
+    <t>Şırnak</t>
+  </si>
+  <si>
+    <t>Tekirdağ</t>
+  </si>
+  <si>
+    <t>Tokat</t>
+  </si>
+  <si>
+    <t>Trabzon</t>
+  </si>
+  <si>
+    <t>Tunceli</t>
+  </si>
+  <si>
+    <t>Uşak</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Yalova</t>
+  </si>
+  <si>
+    <t>Yozgat</t>
+  </si>
+  <si>
+    <t>Zonguldak</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1184,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,12 +1237,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>VLOOKUP(B2,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>01</v>
+      <c r="A2" t="s">
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>432103</v>
@@ -1036,12 +1278,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>VLOOKUP(B3,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>02</v>
+      <c r="A3" t="s">
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>183772</v>
@@ -1078,12 +1319,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f>VLOOKUP(B4,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>03</v>
+      <c r="A4" t="s">
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>243613</v>
@@ -1120,12 +1360,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f>VLOOKUP(B5,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>04</v>
+      <c r="A5" t="s">
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>62284</v>
@@ -1162,12 +1401,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f>VLOOKUP(B6,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>68</v>
+      <c r="A6" t="s">
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="C6">
         <v>125326</v>
@@ -1204,12 +1442,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>VLOOKUP(B7,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>05</v>
+      <c r="A7" t="s">
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>101546</v>
@@ -1246,12 +1483,11 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f>VLOOKUP(B8,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>06</v>
+      <c r="A8" t="s">
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>1351790</v>
@@ -1288,12 +1524,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>VLOOKUP(B9,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>07</v>
+      <c r="A9" t="s">
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C9">
         <v>485103</v>
@@ -1330,12 +1565,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f>VLOOKUP(B10,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>75</v>
+      <c r="A10" t="s">
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>20431</v>
@@ -1372,12 +1606,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>VLOOKUP(B11,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>08</v>
+      <c r="A11" t="s">
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="C11">
         <v>44100</v>
@@ -1414,12 +1647,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f>VLOOKUP(B12,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>09</v>
+      <c r="A12" t="s">
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="C12">
         <v>222373</v>
@@ -1456,12 +1688,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f>VLOOKUP(B13,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>10</v>
+      <c r="A13" t="s">
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="C13">
         <v>338879</v>
@@ -1498,12 +1729,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>VLOOKUP(B14,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>74</v>
+      <c r="A14" t="s">
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="C14">
         <v>56620</v>
@@ -1540,12 +1770,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f>VLOOKUP(B15,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>72</v>
+      <c r="A15" t="s">
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="C15">
         <v>67789</v>
@@ -1582,12 +1811,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f>VLOOKUP(B16,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>69</v>
+      <c r="A16" t="s">
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="C16">
         <v>27008</v>
@@ -1624,12 +1852,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>VLOOKUP(B17,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>11</v>
+      <c r="A17" t="s">
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>58110</v>
@@ -1666,12 +1893,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f>VLOOKUP(B18,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>12</v>
+      <c r="A18" t="s">
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="C18">
         <v>77051</v>
@@ -1708,12 +1934,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f>VLOOKUP(B19,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>13</v>
+      <c r="A19" t="s">
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C19">
         <v>70488</v>
@@ -1750,12 +1975,11 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f>VLOOKUP(B20,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>14</v>
+      <c r="A20" t="s">
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="C20">
         <v>100154</v>
@@ -1792,12 +2016,11 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f>VLOOKUP(B21,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>15</v>
+      <c r="A21" t="s">
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>72191</v>
@@ -1834,12 +2057,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f>VLOOKUP(B22,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>16</v>
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C22">
         <v>855754</v>
@@ -1876,12 +2098,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f>VLOOKUP(B23,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>17</v>
+      <c r="A23" t="s">
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="C23">
         <v>131900</v>
@@ -1918,12 +2139,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f>VLOOKUP(B24,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>18</v>
+      <c r="A24" t="s">
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="C24">
         <v>67305</v>
@@ -1960,12 +2180,11 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f>VLOOKUP(B25,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>19</v>
+      <c r="A25" t="s">
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="C25">
         <v>178083</v>
@@ -2002,12 +2221,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f>VLOOKUP(B26,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>20</v>
+      <c r="A26" t="s">
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="C26">
         <v>263997</v>
@@ -2044,12 +2262,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <f>VLOOKUP(B27,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>21</v>
+      <c r="A27" t="s">
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="C27">
         <v>167805</v>
@@ -2086,12 +2303,11 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <f>VLOOKUP(B28,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>81</v>
+      <c r="A28" t="s">
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="C28">
         <v>132021</v>
@@ -2128,12 +2344,11 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <f>VLOOKUP(B29,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="C29">
         <v>73630</v>
@@ -2170,12 +2385,11 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f>VLOOKUP(B30,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>23</v>
+      <c r="A30" t="s">
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="C30">
         <v>183604</v>
@@ -2212,12 +2426,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <f>VLOOKUP(B31,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>24</v>
+      <c r="A31" t="s">
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C31">
         <v>63013</v>
@@ -2254,12 +2467,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
-        <f>VLOOKUP(B32,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>25</v>
+      <c r="A32" t="s">
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="C32">
         <v>227575</v>
@@ -2296,12 +2508,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
-        <f>VLOOKUP(B33,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>26</v>
+      <c r="A33" t="s">
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C33">
         <v>212446</v>
@@ -2338,12 +2549,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <f>VLOOKUP(B34,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>27</v>
+      <c r="A34" t="s">
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C34">
         <v>515715</v>
@@ -2380,12 +2590,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <f>VLOOKUP(B35,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>28</v>
+      <c r="A35" t="s">
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="C35">
         <v>149135</v>
@@ -2422,12 +2631,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f>VLOOKUP(B36,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>29</v>
+      <c r="A36" t="s">
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="C36">
         <v>44124</v>
@@ -2464,12 +2672,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <f>VLOOKUP(B37,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>30</v>
+      <c r="A37" t="s">
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="C37">
         <v>25544</v>
@@ -2506,12 +2713,11 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
-        <f>VLOOKUP(B38,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>31</v>
+      <c r="A38" t="s">
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="C38">
         <v>320185</v>
@@ -2548,12 +2754,11 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f>VLOOKUP(B39,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>76</v>
+      <c r="A39" t="s">
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="C39">
         <v>17737</v>
@@ -2590,12 +2795,11 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <f>VLOOKUP(B40,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>32</v>
+      <c r="A40" t="s">
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="C40">
         <v>127095</v>
@@ -2632,12 +2836,11 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="str">
-        <f>VLOOKUP(B41,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>34</v>
+      <c r="A41" t="s">
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="C41">
         <v>3821773</v>
@@ -2674,12 +2877,11 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
-        <f>VLOOKUP(B42,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>35</v>
+      <c r="A42" t="s">
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="C42">
         <v>776243</v>
@@ -2716,12 +2918,11 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <f>VLOOKUP(B43,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>46</v>
+      <c r="A43" t="s">
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="C43">
         <v>375008</v>
@@ -2758,12 +2959,11 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f>VLOOKUP(B44,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>78</v>
+      <c r="A44" t="s">
+        <v>170</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="C44">
         <v>79446</v>
@@ -2800,12 +3000,11 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <f>VLOOKUP(B45,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>70</v>
+      <c r="A45" t="s">
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="C45">
         <v>80498</v>
@@ -2842,12 +3041,11 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <f>VLOOKUP(B46,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>36</v>
+      <c r="A46" t="s">
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="C46">
         <v>52791</v>
@@ -2884,12 +3082,11 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
-        <f>VLOOKUP(B47,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>37</v>
+      <c r="A47" t="s">
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C47">
         <v>123900</v>
@@ -2926,12 +3123,11 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
-        <f>VLOOKUP(B48,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>38</v>
+      <c r="A48" t="s">
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="C48">
         <v>420880</v>
@@ -2968,12 +3164,11 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
-        <f>VLOOKUP(B49,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>71</v>
+      <c r="A49" t="s">
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="C49">
         <v>72611</v>
@@ -3010,12 +3205,11 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
-        <f>VLOOKUP(B50,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>39</v>
+      <c r="A50" t="s">
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="C50">
         <v>62148</v>
@@ -3052,12 +3246,11 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
-        <f>VLOOKUP(B51,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>40</v>
+      <c r="A51" t="s">
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="C51">
         <v>56059</v>
@@ -3094,12 +3287,11 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
-        <f>VLOOKUP(B52,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>79</v>
+      <c r="A52" t="s">
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="C52">
         <v>36706</v>
@@ -3136,12 +3328,11 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
-        <f>VLOOKUP(B53,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>41</v>
+      <c r="A53" t="s">
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="C53">
         <v>556671</v>
@@ -3178,12 +3369,11 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
-        <f>VLOOKUP(B54,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>42</v>
+      <c r="A54" t="s">
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="C54">
         <v>771547</v>
@@ -3220,12 +3410,11 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="str">
-        <f>VLOOKUP(B55,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>43</v>
+      <c r="A55" t="s">
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C55">
         <v>203939</v>
@@ -3262,12 +3451,11 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
-        <f>VLOOKUP(B56,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>44</v>
+      <c r="A56" t="s">
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="C56">
         <v>254970</v>
@@ -3304,12 +3492,11 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="str">
-        <f>VLOOKUP(B57,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>45</v>
+      <c r="A57" t="s">
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="C57">
         <v>363916</v>
@@ -3346,12 +3533,11 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
-        <f>VLOOKUP(B58,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>47</v>
+      <c r="A58" t="s">
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="C58">
         <v>113634</v>
@@ -3388,12 +3574,11 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
-        <f>VLOOKUP(B59,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>33</v>
+      <c r="A59" t="s">
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="C59">
         <v>302200</v>
@@ -3430,12 +3615,11 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
-        <f>VLOOKUP(B60,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>48</v>
+      <c r="A60" t="s">
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="C60">
         <v>169767</v>
@@ -3472,12 +3656,11 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
-        <f>VLOOKUP(B61,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>49</v>
+      <c r="A61" t="s">
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="C61">
         <v>57747</v>
@@ -3514,12 +3697,11 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <f>VLOOKUP(B62,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>50</v>
+      <c r="A62" t="s">
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="C62">
         <v>96984</v>
@@ -3556,12 +3738,11 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="str">
-        <f>VLOOKUP(B63,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>51</v>
+      <c r="A63" t="s">
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="C63">
         <v>88103</v>
@@ -3598,12 +3779,11 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
-        <f>VLOOKUP(B64,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>52</v>
+      <c r="A64" t="s">
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="C64">
         <v>223444</v>
@@ -3640,12 +3820,11 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
-        <f>VLOOKUP(B65,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>80</v>
+      <c r="A65" t="s">
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="C65">
         <v>105800</v>
@@ -3682,12 +3861,11 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
-        <f>VLOOKUP(B66,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>53</v>
+      <c r="A66" t="s">
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="C66">
         <v>139948</v>
@@ -3724,12 +3902,11 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="str">
-        <f>VLOOKUP(B67,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>54</v>
+      <c r="A67" t="s">
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="C67">
         <v>358992</v>
@@ -3766,12 +3943,11 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
-        <f>VLOOKUP(B68,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>55</v>
+      <c r="A68" t="s">
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="C68">
         <v>421974</v>
@@ -3808,12 +3984,11 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
-        <f>VLOOKUP(B69,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>56</v>
+      <c r="A69" t="s">
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="C69">
         <v>55890</v>
@@ -3850,12 +4025,11 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <f>VLOOKUP(B70,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>57</v>
+      <c r="A70" t="s">
+        <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C70">
         <v>73639</v>
@@ -3892,12 +4066,11 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="str">
-        <f>VLOOKUP(B71,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>58</v>
+      <c r="A71" t="s">
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="C71">
         <v>213446</v>
@@ -3934,12 +4107,11 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="str">
-        <f>VLOOKUP(B72,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>63</v>
+      <c r="A72" t="s">
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="C72">
         <v>440085</v>
@@ -3976,12 +4148,11 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="str">
-        <f>VLOOKUP(B73,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>73</v>
+      <c r="A73" t="s">
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="C73">
         <v>38523</v>
@@ -4018,12 +4189,11 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
-        <f>VLOOKUP(B74,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>59</v>
+      <c r="A74" t="s">
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="C74">
         <v>216811</v>
@@ -4060,12 +4230,11 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
-        <f>VLOOKUP(B75,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>60</v>
+      <c r="A75" t="s">
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="C75">
         <v>183402</v>
@@ -4102,12 +4271,11 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="str">
-        <f>VLOOKUP(B76,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>61</v>
+      <c r="A76" t="s">
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="C76">
         <v>274490</v>
@@ -4144,12 +4312,11 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
-        <f>VLOOKUP(B77,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>62</v>
+      <c r="A77" t="s">
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="C77">
         <v>7228</v>
@@ -4186,12 +4353,11 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
-        <f>VLOOKUP(B78,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>64</v>
+      <c r="A78" t="s">
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C78">
         <v>100364</v>
@@ -4228,12 +4394,11 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f>VLOOKUP(B79,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>65</v>
+      <c r="A79" t="s">
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="C79">
         <v>157637</v>
@@ -4270,12 +4435,11 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <f>VLOOKUP(B80,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>77</v>
+      <c r="A80" t="s">
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="C80">
         <v>65787</v>
@@ -4312,12 +4476,11 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <f>VLOOKUP(B81,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>66</v>
+      <c r="A81" t="s">
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="C81">
         <v>131340</v>
@@ -4354,12 +4517,11 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <f>VLOOKUP(B82,Sheet1!$A$1:$B$81,2,0)</f>
-        <v>67</v>
+      <c r="A82" t="s">
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="C82">
         <v>170175</v>
@@ -4399,7 +4561,7 @@
   <autoFilter ref="A1:M82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B43:B82 B1 B3:B7 B9:B21 B24:B40 B2 B23 C43:M82 C1:M1 C2:M7 C9:M21 C23:M40" numberStoredAsText="1"/>
+    <ignoredError sqref="B1 C43:M82 C1:M1 C2:M7 C9:M21 C23:M40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/current_files/data/Yurt_ici_27.donem.xlsx
+++ b/current_files/data/Yurt_ici_27.donem.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efegulkan/R_files/employment_election/current_files/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE07B083-3C0F-0D4C-9DCF-F88D64B3035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D171C645-523A-C743-BE51-EEFE66F3C202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$M$82</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="289">
   <si>
     <t>İl Adı</t>
   </si>
@@ -805,6 +806,105 @@
   </si>
   <si>
     <t>Zonguldak</t>
+  </si>
+  <si>
+    <t>TR62</t>
+  </si>
+  <si>
+    <t>TR51</t>
+  </si>
+  <si>
+    <t>TR61</t>
+  </si>
+  <si>
+    <t>TR32</t>
+  </si>
+  <si>
+    <t>TRA2</t>
+  </si>
+  <si>
+    <t>TR22</t>
+  </si>
+  <si>
+    <t>TR41</t>
+  </si>
+  <si>
+    <t>TRA1</t>
+  </si>
+  <si>
+    <t>TRC1</t>
+  </si>
+  <si>
+    <t>TR63</t>
+  </si>
+  <si>
+    <t>TR82</t>
+  </si>
+  <si>
+    <t>TR72</t>
+  </si>
+  <si>
+    <t>TR42</t>
+  </si>
+  <si>
+    <t>TR52</t>
+  </si>
+  <si>
+    <t>TR71</t>
+  </si>
+  <si>
+    <t>TRB1</t>
+  </si>
+  <si>
+    <t>TR33</t>
+  </si>
+  <si>
+    <t>TRC3</t>
+  </si>
+  <si>
+    <t>TR83</t>
+  </si>
+  <si>
+    <t>TR21</t>
+  </si>
+  <si>
+    <t>TR90</t>
+  </si>
+  <si>
+    <t>TRB2</t>
+  </si>
+  <si>
+    <t>TR81</t>
+  </si>
+  <si>
+    <t>TR10</t>
+  </si>
+  <si>
+    <t>TR31</t>
+  </si>
+  <si>
+    <t>TRC2</t>
+  </si>
+  <si>
+    <t>ibss2</t>
+  </si>
+  <si>
+    <t>il</t>
+  </si>
+  <si>
+    <t>il2</t>
+  </si>
+  <si>
+    <t>il3</t>
+  </si>
+  <si>
+    <t>il4</t>
+  </si>
+  <si>
+    <t>il5</t>
+  </si>
+  <si>
+    <t>il6</t>
   </si>
 </sst>
 </file>
@@ -857,6 +957,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BBA0EE4-8BDE-B745-8CDE-6279A49DC6B1}" name="Table2" displayName="Table2" ref="A1:G27" totalsRowShown="0">
+  <autoFilter ref="A1:G27" xr:uid="{3BBA0EE4-8BDE-B745-8CDE-6279A49DC6B1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B89D6ECC-E888-A24D-8FE4-C4AA3E26CE1E}" name="ibss2"/>
+    <tableColumn id="2" xr3:uid="{E1B28AF8-E63A-A945-AEED-C2518390CF23}" name="il"/>
+    <tableColumn id="3" xr3:uid="{CCCD0D8B-F659-214A-A285-E8F07ACE0E74}" name="il2"/>
+    <tableColumn id="4" xr3:uid="{C96A90CD-E5DF-0E4F-9211-487FC6234D84}" name="il3"/>
+    <tableColumn id="5" xr3:uid="{1DFBA64D-AA70-A545-8F79-25340128D431}" name="il4"/>
+    <tableColumn id="6" xr3:uid="{E7EBA359-63F8-7B41-BF75-9EEF279E680E}" name="il5"/>
+    <tableColumn id="7" xr3:uid="{66FFA5E3-7592-2542-A91F-3061F68A9144}" name="il6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,7 +1300,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4570,7 +4686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F60C0ED-E68F-BE48-AEA2-7C115D540C74}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -5230,4 +5346,418 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39786A68-967E-5147-AC63-E616FB8D72DB}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>